--- a/resource/example/user-story-normalized-data.xlsx
+++ b/resource/example/user-story-normalized-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Solution Developer</t>
   </si>
@@ -57,9 +57,6 @@
     <t>System Admin</t>
   </si>
   <si>
-    <t>quickly and easily test my code in my test Cloud environment that is deployed in a similar way to the production environment</t>
-  </si>
-  <si>
     <t>try out writing some apps using it</t>
   </si>
   <si>
@@ -67,6 +64,21 @@
   </si>
   <si>
     <t>evaluate how well it compares with the competition</t>
+  </si>
+  <si>
+    <t>Beatle</t>
+  </si>
+  <si>
+    <t>hold your hand</t>
+  </si>
+  <si>
+    <t>The song must be less than three minutes long</t>
+  </si>
+  <si>
+    <t>have a hit single</t>
+  </si>
+  <si>
+    <t>quickly and easily test my code in my test Cloud environment</t>
   </si>
 </sst>
 </file>
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -529,6 +541,11 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -545,9 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -556,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -567,6 +582,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -585,10 +605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -598,17 +618,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +648,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -659,6 +684,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
